--- a/resultados regresiones.xlsx
+++ b/resultados regresiones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elilo\Desktop\Apps\R Studio\Analisis articulo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51FB52C-B203-45F4-886C-53CB78894B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07B294A-C0CD-4066-94E0-BAC625DDECED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{B182AF77-74A8-47E2-B10D-FE90D360CEA8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{B182AF77-74A8-47E2-B10D-FE90D360CEA8}"/>
   </bookViews>
   <sheets>
     <sheet name="SIMPLES" sheetId="1" r:id="rId1"/>
@@ -184,14 +184,14 @@
     <t xml:space="preserve">GRUPOS </t>
   </si>
   <si>
-    <t>PUNTAJE Z</t>
+    <t>CRIq_PjeZ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,14 +222,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF92D050"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -358,8 +350,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -370,26 +381,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -720,23 +712,23 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="18"/>
+      <c r="E1" s="21"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18" t="s">
+      <c r="I1" s="21"/>
+      <c r="J1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="18"/>
+      <c r="K1" s="21"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -1100,10 +1092,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2FCBF9C-DE0E-41BE-A82B-3332AFEB364A}">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1113,48 +1105,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="19" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="21"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="28"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22" t="s">
+      <c r="C2" s="25"/>
+      <c r="D2" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22" t="s">
+      <c r="E2" s="25"/>
+      <c r="F2" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="22"/>
+      <c r="G2" s="25"/>
       <c r="H2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18" t="s">
+      <c r="J2" s="21"/>
+      <c r="K2" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="L2" s="18"/>
+      <c r="L2" s="21"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
@@ -1546,51 +1538,51 @@
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="23" t="s">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="19" t="s">
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="21"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="28"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22" t="s">
+      <c r="C18" s="25"/>
+      <c r="D18" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22" t="s">
+      <c r="E18" s="25"/>
+      <c r="F18" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="22"/>
+      <c r="G18" s="25"/>
       <c r="H18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I18" s="18" t="s">
+      <c r="I18" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18" t="s">
+      <c r="J18" s="21"/>
+      <c r="K18" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="L18" s="18"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L18" s="21"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1626,7 +1618,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>0</v>
       </c>
@@ -1664,7 +1656,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>1</v>
       </c>
@@ -1694,48 +1686,45 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="26" t="s">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="27">
+      <c r="B22" s="19">
         <v>-0.3</v>
       </c>
-      <c r="C22" s="27">
+      <c r="C22" s="19">
         <v>0.04</v>
       </c>
-      <c r="D22" s="26">
+      <c r="D22" s="18">
         <v>0.82</v>
       </c>
-      <c r="E22" s="26">
+      <c r="E22" s="18">
         <v>0.17</v>
       </c>
-      <c r="F22" s="27">
+      <c r="F22" s="19">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="G22" s="27">
+      <c r="G22" s="19">
         <v>0.04</v>
       </c>
-      <c r="H22" s="27">
+      <c r="H22" s="19">
         <v>0.02</v>
       </c>
-      <c r="I22" s="28">
-        <v>-0.12</v>
-      </c>
-      <c r="J22" s="28">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="K22" s="28">
-        <v>0.01</v>
-      </c>
-      <c r="L22" s="28">
-        <v>0.73</v>
-      </c>
-      <c r="M22" s="29" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I22" s="29">
+        <v>-0.15</v>
+      </c>
+      <c r="J22" s="29">
+        <v>0.02</v>
+      </c>
+      <c r="K22" s="20">
+        <v>0.06</v>
+      </c>
+      <c r="L22" s="20">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>3</v>
       </c>
@@ -1765,7 +1754,7 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>4</v>
       </c>
@@ -1795,7 +1784,7 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>5</v>
       </c>
@@ -1833,7 +1822,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>6</v>
       </c>
@@ -1863,7 +1852,7 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>7</v>
       </c>
@@ -1893,7 +1882,7 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>8</v>
       </c>
@@ -1923,7 +1912,7 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>31</v>
       </c>
@@ -1953,8 +1942,52 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
     </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="18">
+        <v>-0.17</v>
+      </c>
+      <c r="C30" s="18">
+        <v>0.81</v>
+      </c>
+      <c r="D30" s="19">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E30" s="19">
+        <v>0.03</v>
+      </c>
+      <c r="F30" s="19">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G30" s="19">
+        <v>0.04</v>
+      </c>
+      <c r="H30" s="19">
+        <v>0.02</v>
+      </c>
+      <c r="I30" s="19">
+        <v>-0.46</v>
+      </c>
+      <c r="J30" s="19">
+        <v>0.02</v>
+      </c>
+      <c r="K30" s="18">
+        <v>0.19</v>
+      </c>
+      <c r="L30" s="18">
+        <v>0.15</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="I17:L17"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
@@ -1963,12 +1996,6 @@
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="A17:H17"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="I17:L17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1978,8 +2005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{567D6B01-FDB5-44F1-B5CF-4E8B75B3AEE5}">
   <dimension ref="A1:U27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1990,73 +2017,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="19" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="21"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="28"/>
       <c r="M1" s="9"/>
-      <c r="N1" s="23" t="s">
+      <c r="N1" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="25"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="24"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22" t="s">
+      <c r="C2" s="25"/>
+      <c r="D2" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22" t="s">
+      <c r="E2" s="25"/>
+      <c r="F2" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="22"/>
+      <c r="G2" s="25"/>
       <c r="H2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18" t="s">
+      <c r="J2" s="21"/>
+      <c r="K2" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="L2" s="18"/>
+      <c r="L2" s="21"/>
       <c r="M2" s="9"/>
       <c r="N2" s="4"/>
-      <c r="O2" s="23" t="s">
+      <c r="O2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="23" t="s">
+      <c r="P2" s="24"/>
+      <c r="Q2" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="25"/>
-      <c r="S2" s="23" t="s">
+      <c r="R2" s="24"/>
+      <c r="S2" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="T2" s="25"/>
+      <c r="T2" s="24"/>
       <c r="U2" s="4" t="s">
         <v>25</v>
       </c>
@@ -2229,10 +2256,10 @@
       <c r="R5" s="13">
         <v>0.08</v>
       </c>
-      <c r="S5" s="4">
+      <c r="S5" s="13">
         <v>0.08</v>
       </c>
-      <c r="T5" s="4">
+      <c r="T5" s="13">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="U5" s="13">
@@ -2614,10 +2641,10 @@
       <c r="R12" s="4">
         <v>0.16</v>
       </c>
-      <c r="S12" s="4">
+      <c r="S12" s="13">
         <v>4.32</v>
       </c>
-      <c r="T12" s="4">
+      <c r="T12" s="13">
         <v>0.08</v>
       </c>
       <c r="U12" s="10">
@@ -2690,46 +2717,46 @@
       <c r="U15" s="9"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="25"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="24"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
-      <c r="N16" s="23" t="s">
+      <c r="N16" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="24"/>
-      <c r="S16" s="24"/>
-      <c r="T16" s="24"/>
-      <c r="U16" s="25"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="23"/>
+      <c r="U16" s="24"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22" t="s">
+      <c r="C17" s="25"/>
+      <c r="D17" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22" t="s">
+      <c r="E17" s="25"/>
+      <c r="F17" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="22"/>
+      <c r="G17" s="25"/>
       <c r="H17" s="4" t="s">
         <v>25</v>
       </c>
@@ -2739,18 +2766,18 @@
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
       <c r="N17" s="4"/>
-      <c r="O17" s="23" t="s">
+      <c r="O17" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="23" t="s">
+      <c r="P17" s="24"/>
+      <c r="Q17" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="R17" s="25"/>
-      <c r="S17" s="23" t="s">
+      <c r="R17" s="24"/>
+      <c r="S17" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="T17" s="25"/>
+      <c r="T17" s="24"/>
       <c r="U17" s="4" t="s">
         <v>25</v>
       </c>
@@ -2906,10 +2933,10 @@
       <c r="R20" s="14">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="S20" s="4">
+      <c r="S20" s="14">
         <v>0.28000000000000003</v>
       </c>
-      <c r="T20" s="4">
+      <c r="T20" s="14">
         <v>0.03</v>
       </c>
       <c r="U20" s="14">
@@ -3303,6 +3330,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="N1:U1"/>
     <mergeCell ref="I1:L1"/>
@@ -3319,9 +3349,6 @@
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/resultados regresiones.xlsx
+++ b/resultados regresiones.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elilo\Desktop\Apps\R Studio\Analisis articulo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07B294A-C0CD-4066-94E0-BAC625DDECED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D0158B4-740A-44D9-A6EF-13EC0146287B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{B182AF77-74A8-47E2-B10D-FE90D360CEA8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{B182AF77-74A8-47E2-B10D-FE90D360CEA8}"/>
   </bookViews>
   <sheets>
     <sheet name="SIMPLES" sheetId="1" r:id="rId1"/>
-    <sheet name="ATT &amp; WM" sheetId="2" r:id="rId2"/>
-    <sheet name="EDAD" sheetId="3" r:id="rId3"/>
+    <sheet name="simples_Z" sheetId="4" r:id="rId2"/>
+    <sheet name="ATT &amp; WM" sheetId="2" r:id="rId3"/>
+    <sheet name="ATT &amp; WM_Z" sheetId="5" r:id="rId4"/>
+    <sheet name="EDAD" sheetId="3" r:id="rId5"/>
+    <sheet name="EDAD_Z" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="82">
   <si>
     <t>EDAD</t>
   </si>
@@ -185,13 +188,112 @@
   </si>
   <si>
     <t>CRIq_PjeZ</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>IDARE-R</t>
+  </si>
+  <si>
+    <t>IDERE-R</t>
+  </si>
+  <si>
+    <t>IDARE-E</t>
+  </si>
+  <si>
+    <t>IDERE-E</t>
+  </si>
+  <si>
+    <t>3.7X10-6</t>
+  </si>
+  <si>
+    <t>2.2X10-5</t>
+  </si>
+  <si>
+    <t>1.5X10-5</t>
+  </si>
+  <si>
+    <t>1.7X10-5</t>
+  </si>
+  <si>
+    <t>4.9X10-5</t>
+  </si>
+  <si>
+    <t>3.5X10-6</t>
+  </si>
+  <si>
+    <t>4.5X10-5</t>
+  </si>
+  <si>
+    <t>2.12X10-5</t>
+  </si>
+  <si>
+    <t>1.63X10-5</t>
+  </si>
+  <si>
+    <t>SHIPLEY</t>
+  </si>
+  <si>
+    <t>4.63X10-5</t>
+  </si>
+  <si>
+    <t>2.99X10.6</t>
+  </si>
+  <si>
+    <t>2.37X10-6</t>
+  </si>
+  <si>
+    <t>2.09X10-5</t>
+  </si>
+  <si>
+    <t>2.27X10-5</t>
+  </si>
+  <si>
+    <t>3.3X10-5</t>
+  </si>
+  <si>
+    <t>3.9X10.7</t>
+  </si>
+  <si>
+    <t>2.5X10-6</t>
+  </si>
+  <si>
+    <t>2.4X10-6</t>
+  </si>
+  <si>
+    <t>1.47x10-5</t>
+  </si>
+  <si>
+    <t>6.7x10-6</t>
+  </si>
+  <si>
+    <t>7.1x10-6</t>
+  </si>
+  <si>
+    <t>1.9x10-5</t>
+  </si>
+  <si>
+    <t>3.4x10-6</t>
+  </si>
+  <si>
+    <t>6.03x10-5</t>
+  </si>
+  <si>
+    <t>Grupo</t>
+  </si>
+  <si>
+    <t>Nivel</t>
+  </si>
+  <si>
+    <t>Bajo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,6 +328,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -241,7 +354,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -301,11 +414,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -357,6 +494,34 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -381,7 +546,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -699,7 +878,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -712,23 +891,23 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21" t="s">
+      <c r="C1" s="33"/>
+      <c r="D1" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="21"/>
+      <c r="E1" s="33"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21" t="s">
+      <c r="I1" s="33"/>
+      <c r="J1" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="21"/>
+      <c r="K1" s="33"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -1091,11 +1270,598 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F894C3D5-DDD7-47D0-8C07-06464CD435CE}">
+  <dimension ref="A1:O15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4">
+        <v>-2E-3</v>
+      </c>
+      <c r="C3" s="24">
+        <v>-0.02</v>
+      </c>
+      <c r="D3" s="24">
+        <v>0.61</v>
+      </c>
+      <c r="E3" s="13">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F3" s="13">
+        <v>-0.09</v>
+      </c>
+      <c r="G3" s="13">
+        <v>0.06</v>
+      </c>
+      <c r="H3" s="25"/>
+      <c r="I3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="10">
+        <v>0.09</v>
+      </c>
+      <c r="K3" s="10">
+        <v>3.14</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="M3" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="N3" s="10">
+        <v>-2.5</v>
+      </c>
+      <c r="O3" s="10">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="C4" s="10">
+        <v>1.48</v>
+      </c>
+      <c r="D4" s="10">
+        <v>2E-3</v>
+      </c>
+      <c r="E4" s="24">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="F4" s="24">
+        <v>0.05</v>
+      </c>
+      <c r="G4" s="24">
+        <v>0.26</v>
+      </c>
+      <c r="H4" s="25"/>
+      <c r="I4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="4">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="K4" s="24">
+        <v>-1.1100000000000001</v>
+      </c>
+      <c r="L4" s="24">
+        <v>0.11</v>
+      </c>
+      <c r="M4" s="24">
+        <v>-2E-3</v>
+      </c>
+      <c r="N4" s="24">
+        <v>-0.05</v>
+      </c>
+      <c r="O4" s="24">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="13">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C5" s="13">
+        <v>0.09</v>
+      </c>
+      <c r="D5" s="13">
+        <v>0.05</v>
+      </c>
+      <c r="E5" s="24">
+        <v>-2E-3</v>
+      </c>
+      <c r="F5" s="24">
+        <v>-0.01</v>
+      </c>
+      <c r="G5" s="24">
+        <v>0.77</v>
+      </c>
+      <c r="H5" s="25"/>
+      <c r="I5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="4">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K5" s="24">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="L5" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="M5" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="N5" s="10">
+        <v>1.62</v>
+      </c>
+      <c r="O5" s="10">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="4">
+        <v>-2E-3</v>
+      </c>
+      <c r="C6" s="29">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D6" s="24">
+        <v>0.85</v>
+      </c>
+      <c r="E6" s="24">
+        <v>-2E-3</v>
+      </c>
+      <c r="F6" s="24">
+        <v>-0.03</v>
+      </c>
+      <c r="G6" s="24">
+        <v>0.59</v>
+      </c>
+      <c r="H6" s="25"/>
+      <c r="I6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="4">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="K6" s="24">
+        <v>-0.18</v>
+      </c>
+      <c r="L6" s="24">
+        <v>0.79</v>
+      </c>
+      <c r="M6" s="24">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="N6" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="O6" s="24">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="10">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C7" s="10">
+        <v>1.02</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="E7" s="24">
+        <v>-8.9999999999999998E-4</v>
+      </c>
+      <c r="F7" s="24">
+        <v>0.04</v>
+      </c>
+      <c r="G7" s="24">
+        <v>0.44</v>
+      </c>
+      <c r="H7" s="25"/>
+      <c r="I7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" s="4">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K7" s="24">
+        <v>-7.1999999999999995E-2</v>
+      </c>
+      <c r="L7" s="24">
+        <v>0.31</v>
+      </c>
+      <c r="M7" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="N7" s="10">
+        <v>-1.85</v>
+      </c>
+      <c r="O7" s="10">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="10">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="C8" s="10">
+        <v>0.09</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="E8" s="24">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="F8" s="24">
+        <v>-4.93</v>
+      </c>
+      <c r="G8" s="24">
+        <v>0.31</v>
+      </c>
+      <c r="H8" s="25"/>
+      <c r="I8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J8" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="K8" s="10">
+        <v>-1.34</v>
+      </c>
+      <c r="L8" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="M8" s="24">
+        <v>-1E-3</v>
+      </c>
+      <c r="N8" s="24">
+        <v>-0.06</v>
+      </c>
+      <c r="O8" s="24">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="4">
+        <v>-2E-3</v>
+      </c>
+      <c r="C9" s="24">
+        <v>0.08</v>
+      </c>
+      <c r="D9" s="24">
+        <v>0.71</v>
+      </c>
+      <c r="E9" s="24">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F9" s="24">
+        <v>-0.08</v>
+      </c>
+      <c r="G9" s="24">
+        <v>0.09</v>
+      </c>
+      <c r="H9" s="25"/>
+      <c r="I9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K9" s="24">
+        <v>-1.01</v>
+      </c>
+      <c r="L9" s="24">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M9" s="24">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="N9" s="24">
+        <v>-0.03</v>
+      </c>
+      <c r="O9" s="24">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="4">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C10" s="24">
+        <v>0.08</v>
+      </c>
+      <c r="D10" s="24">
+        <v>0.11</v>
+      </c>
+      <c r="E10" s="24">
+        <v>-2E-3</v>
+      </c>
+      <c r="F10" s="24">
+        <v>0.03</v>
+      </c>
+      <c r="G10" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="H10" s="25"/>
+      <c r="I10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="K10" s="10">
+        <v>-2.4700000000000002</v>
+      </c>
+      <c r="L10" s="10">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="M10" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="N10" s="10">
+        <v>-2.2799999999999998</v>
+      </c>
+      <c r="O10" s="10">
+        <v>8.9999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="C11" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="D11" s="24">
+        <v>0.21</v>
+      </c>
+      <c r="E11" s="24">
+        <v>-2.0000000000000001E-4</v>
+      </c>
+      <c r="F11" s="24">
+        <v>0.05</v>
+      </c>
+      <c r="G11" s="24">
+        <v>0.34</v>
+      </c>
+      <c r="H11" s="25"/>
+      <c r="I11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" s="4">
+        <v>2E-3</v>
+      </c>
+      <c r="K11" s="29">
+        <v>-8.5000000000000006E-2</v>
+      </c>
+      <c r="L11" s="24">
+        <v>0.22</v>
+      </c>
+      <c r="M11" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="N11" s="13">
+        <v>-1.3</v>
+      </c>
+      <c r="O11" s="13">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="C12" s="10">
+        <v>1.32</v>
+      </c>
+      <c r="D12" s="10">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E12" s="24">
+        <v>-1E-4</v>
+      </c>
+      <c r="F12" s="24">
+        <v>0.05</v>
+      </c>
+      <c r="G12" s="24">
+        <v>0.33</v>
+      </c>
+      <c r="H12" s="25"/>
+      <c r="I12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="K12" s="24">
+        <v>0.08</v>
+      </c>
+      <c r="L12" s="24">
+        <v>0.26</v>
+      </c>
+      <c r="M12" s="24">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="N12" s="24">
+        <v>-1.21</v>
+      </c>
+      <c r="O12" s="24">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="C13" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="D13" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E13" s="24">
+        <v>-2E-3</v>
+      </c>
+      <c r="F13" s="24">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G13" s="24">
+        <v>0.91</v>
+      </c>
+      <c r="H13" s="9"/>
+      <c r="I13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="K13" s="10">
+        <v>-0.13</v>
+      </c>
+      <c r="L13" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="M13" s="24">
+        <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="N13" s="24">
+        <v>-0.09</v>
+      </c>
+      <c r="O13" s="24">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B15" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2FCBF9C-DE0E-41BE-A82B-3332AFEB364A}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection sqref="A1:H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1105,48 +1871,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="26" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="28"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="40"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25" t="s">
+      <c r="C2" s="37"/>
+      <c r="D2" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25" t="s">
+      <c r="E2" s="37"/>
+      <c r="F2" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="25"/>
+      <c r="G2" s="37"/>
       <c r="H2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21" t="s">
+      <c r="J2" s="33"/>
+      <c r="K2" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="L2" s="21"/>
+      <c r="L2" s="33"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
@@ -1539,48 +2305,48 @@
       <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="26" t="s">
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="28"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="40"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25" t="s">
+      <c r="C18" s="37"/>
+      <c r="D18" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25" t="s">
+      <c r="E18" s="37"/>
+      <c r="F18" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="25"/>
+      <c r="G18" s="37"/>
       <c r="H18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I18" s="21" t="s">
+      <c r="I18" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21" t="s">
+      <c r="J18" s="33"/>
+      <c r="K18" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="L18" s="21"/>
+      <c r="L18" s="33"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
@@ -1711,10 +2477,10 @@
       <c r="H22" s="19">
         <v>0.02</v>
       </c>
-      <c r="I22" s="29">
+      <c r="I22" s="21">
         <v>-0.15</v>
       </c>
-      <c r="J22" s="29">
+      <c r="J22" s="21">
         <v>0.02</v>
       </c>
       <c r="K22" s="20">
@@ -2001,12 +2767,601 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C7757F5-E467-43FB-943F-7BD7D5C7DE70}">
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="11.5546875" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="24"/>
+      <c r="B2" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="41"/>
+      <c r="H2" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="24"/>
+      <c r="B3" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="10">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="10">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G5" s="30"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24">
+        <v>0.33</v>
+      </c>
+      <c r="G6" s="30"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24">
+        <v>0.67</v>
+      </c>
+      <c r="G7" s="30"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24">
+        <v>0.27</v>
+      </c>
+      <c r="G8" s="30"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24">
+        <v>0.18</v>
+      </c>
+      <c r="G9" s="30"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G10" s="30"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="10">
+        <v>-0.24</v>
+      </c>
+      <c r="C11" s="10">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G11" s="44">
+        <v>0.05</v>
+      </c>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24">
+        <v>0.39</v>
+      </c>
+      <c r="G12" s="30"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G13" s="30"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="10">
+        <v>-1.0999999999999999E-2</v>
+      </c>
+      <c r="C14" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="G14" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="H14" s="25"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="31"/>
+      <c r="B19" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="43"/>
+      <c r="H19" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="24"/>
+      <c r="B20" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="I20" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="J20" s="31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="10">
+        <v>0.24</v>
+      </c>
+      <c r="C21" s="10">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10">
+        <v>2E-3</v>
+      </c>
+      <c r="G21" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24">
+        <v>0.38</v>
+      </c>
+      <c r="G22" s="22"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="10">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C23" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="D23" s="10">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E23" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="F23" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="G23" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="I23" s="15">
+        <v>-0.65</v>
+      </c>
+      <c r="J23" s="15">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K23" s="25"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24">
+        <v>0.91</v>
+      </c>
+      <c r="G24" s="22"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="G25" s="22"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24">
+        <v>0.85</v>
+      </c>
+      <c r="G26" s="22"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24">
+        <v>0.92</v>
+      </c>
+      <c r="G27" s="22"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="10">
+        <v>-0.23</v>
+      </c>
+      <c r="C28" s="10">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="G28" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24">
+        <v>0.31</v>
+      </c>
+      <c r="G29" s="22"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24">
+        <v>0.31</v>
+      </c>
+      <c r="G30" s="22"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="G31" s="24"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{567D6B01-FDB5-44F1-B5CF-4E8B75B3AEE5}">
   <dimension ref="A1:U27"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="N1" activeCellId="1" sqref="A1:H1 N1:U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2017,73 +3372,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="26" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="28"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="40"/>
       <c r="M1" s="9"/>
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="24"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="36"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25" t="s">
+      <c r="C2" s="37"/>
+      <c r="D2" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25" t="s">
+      <c r="E2" s="37"/>
+      <c r="F2" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="25"/>
+      <c r="G2" s="37"/>
       <c r="H2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21" t="s">
+      <c r="J2" s="33"/>
+      <c r="K2" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="L2" s="21"/>
+      <c r="L2" s="33"/>
       <c r="M2" s="9"/>
       <c r="N2" s="4"/>
-      <c r="O2" s="22" t="s">
+      <c r="O2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="22" t="s">
+      <c r="P2" s="36"/>
+      <c r="Q2" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="24"/>
-      <c r="S2" s="22" t="s">
+      <c r="R2" s="36"/>
+      <c r="S2" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="T2" s="24"/>
+      <c r="T2" s="36"/>
       <c r="U2" s="4" t="s">
         <v>25</v>
       </c>
@@ -2717,46 +4072,46 @@
       <c r="U15" s="9"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="24"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="36"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
-      <c r="N16" s="22" t="s">
+      <c r="N16" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="23"/>
-      <c r="T16" s="23"/>
-      <c r="U16" s="24"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="35"/>
+      <c r="S16" s="35"/>
+      <c r="T16" s="35"/>
+      <c r="U16" s="36"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25" t="s">
+      <c r="C17" s="37"/>
+      <c r="D17" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25" t="s">
+      <c r="E17" s="37"/>
+      <c r="F17" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="25"/>
+      <c r="G17" s="37"/>
       <c r="H17" s="4" t="s">
         <v>25</v>
       </c>
@@ -2766,18 +4121,18 @@
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
       <c r="N17" s="4"/>
-      <c r="O17" s="22" t="s">
+      <c r="O17" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="22" t="s">
+      <c r="P17" s="36"/>
+      <c r="Q17" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="R17" s="24"/>
-      <c r="S17" s="22" t="s">
+      <c r="R17" s="36"/>
+      <c r="S17" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="T17" s="24"/>
+      <c r="T17" s="36"/>
       <c r="U17" s="4" t="s">
         <v>25</v>
       </c>
@@ -3330,13 +4685,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="N1:U1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="S2:T2"/>
     <mergeCell ref="Q17:R17"/>
     <mergeCell ref="S17:T17"/>
     <mergeCell ref="N16:U16"/>
@@ -3346,9 +4694,1458 @@
     <mergeCell ref="O17:P17"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="Q2:R2"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="N1:U1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="O2:P2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A507BC9-C877-4502-A460-22857A1A9D00}">
+  <dimension ref="A1:Z32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="13" width="11.5546875" style="23"/>
+    <col min="14" max="14" width="12.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="11.5546875" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A2" s="24"/>
+      <c r="B2" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="41"/>
+      <c r="J2" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="V2" s="41"/>
+      <c r="W2" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="X2" s="42"/>
+      <c r="Y2" s="42"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A3" s="24"/>
+      <c r="B3" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="K3" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="25"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q3" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="R3" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="S3" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="T3" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="U3" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="V3" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="W3" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="X3" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y3" s="31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="10">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O4" s="10">
+        <v>0.22</v>
+      </c>
+      <c r="P4" s="10">
+        <v>1.6E-2</v>
+      </c>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10">
+        <v>2E-3</v>
+      </c>
+      <c r="V4" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="10">
+        <v>0.48</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="10">
+        <v>-0.26</v>
+      </c>
+      <c r="E5" s="10">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" s="10">
+        <v>0.11</v>
+      </c>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O5" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="P5" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="Q5" s="10">
+        <v>-0.26</v>
+      </c>
+      <c r="R5" s="10">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="V5" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="W5" s="25"/>
+      <c r="X5" s="25"/>
+      <c r="Y5" s="25"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="10">
+        <v>0.33</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="10">
+        <v>0.09</v>
+      </c>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O6" s="10">
+        <v>0.26</v>
+      </c>
+      <c r="P6" s="10">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="V6" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="W6" s="25"/>
+      <c r="X6" s="25"/>
+      <c r="Y6" s="25"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="10">
+        <v>0.32</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" s="10">
+        <v>0.09</v>
+      </c>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O7" s="10">
+        <v>0.26</v>
+      </c>
+      <c r="P7" s="10">
+        <v>1E-4</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>-0.18</v>
+      </c>
+      <c r="R7" s="10">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="V7" s="10">
+        <v>0.09</v>
+      </c>
+      <c r="W7" s="25"/>
+      <c r="X7" s="25"/>
+      <c r="Y7" s="25"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O8" s="10">
+        <v>0.24</v>
+      </c>
+      <c r="P8" s="10">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="V8" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="W8" s="25"/>
+      <c r="X8" s="25"/>
+      <c r="Y8" s="25"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="10">
+        <v>0.31</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="10">
+        <v>0.09</v>
+      </c>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="O9" s="10">
+        <v>0.26</v>
+      </c>
+      <c r="P9" s="10">
+        <v>1E-4</v>
+      </c>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10">
+        <v>0.18</v>
+      </c>
+      <c r="T9" s="10">
+        <v>1E-4</v>
+      </c>
+      <c r="U9" s="10">
+        <v>1E-4</v>
+      </c>
+      <c r="V9" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="W9" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="X9" s="15">
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="Y9" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="10">
+        <v>0.26</v>
+      </c>
+      <c r="C10" s="10">
+        <v>1E-4</v>
+      </c>
+      <c r="D10" s="10">
+        <v>-0.18</v>
+      </c>
+      <c r="E10" s="10">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="10">
+        <v>0.21</v>
+      </c>
+      <c r="P10" s="10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="Q10" s="10">
+        <v>-0.17</v>
+      </c>
+      <c r="R10" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="V10" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="15"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="45">
+        <v>0.3</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10">
+        <v>0.17</v>
+      </c>
+      <c r="G11" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="J11" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" s="25">
+        <v>0.26</v>
+      </c>
+      <c r="L11" s="25">
+        <v>0.09</v>
+      </c>
+      <c r="M11" s="25"/>
+      <c r="N11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O11" s="10">
+        <v>0.24</v>
+      </c>
+      <c r="P11" s="10">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="V11" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="W11" s="15"/>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="15"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="10">
+        <v>0.31</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I12" s="10">
+        <v>0.09</v>
+      </c>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O12" s="10">
+        <v>0.32</v>
+      </c>
+      <c r="P12" s="10">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="V12" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="W12" s="15"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="15"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="I13" s="10">
+        <v>0.09</v>
+      </c>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O13" s="10">
+        <v>0.45</v>
+      </c>
+      <c r="P13" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="V13" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="15"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="10">
+        <v>0.31</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="I14" s="10">
+        <v>0.09</v>
+      </c>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="O14" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="P14" s="10">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10">
+        <v>0.13</v>
+      </c>
+      <c r="T14" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="U14" s="10">
+        <v>2E-3</v>
+      </c>
+      <c r="V14" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="W14" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="X14" s="15">
+        <v>-0.54</v>
+      </c>
+      <c r="Y14" s="15">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="15"/>
+      <c r="Y15" s="15"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="25"/>
+      <c r="W16" s="25"/>
+      <c r="X16" s="25"/>
+      <c r="Y16" s="25"/>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="25"/>
+      <c r="W17" s="25"/>
+      <c r="X17" s="25"/>
+      <c r="Y17" s="25"/>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A18" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="O18" s="41"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="41"/>
+      <c r="R18" s="41"/>
+      <c r="S18" s="41"/>
+      <c r="T18" s="41"/>
+      <c r="U18" s="41"/>
+      <c r="V18" s="41"/>
+      <c r="W18" s="25"/>
+      <c r="X18" s="25"/>
+      <c r="Y18" s="25"/>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A19" s="24"/>
+      <c r="B19" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" s="41"/>
+      <c r="J19" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="P19" s="41"/>
+      <c r="Q19" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="R19" s="41"/>
+      <c r="S19" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="T19" s="41"/>
+      <c r="U19" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="V19" s="41"/>
+      <c r="W19" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="X19" s="41"/>
+      <c r="Y19" s="41"/>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A20" s="24"/>
+      <c r="B20" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="J20" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="K20" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="L20" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="M20" s="25"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="P20" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q20" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="R20" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="S20" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="T20" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="U20" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="V20" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="W20" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="X20" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y20" s="31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="10">
+        <v>0.16</v>
+      </c>
+      <c r="C21" s="10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="I21" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="24"/>
+      <c r="U21" s="24">
+        <v>0.11</v>
+      </c>
+      <c r="V21" s="24"/>
+      <c r="W21" s="15"/>
+      <c r="X21" s="15"/>
+      <c r="Y21" s="15"/>
+      <c r="Z21" s="8"/>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="10">
+        <v>0.27</v>
+      </c>
+      <c r="C22" s="10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D22" s="10">
+        <v>-0.2</v>
+      </c>
+      <c r="E22" s="10">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F22" s="10">
+        <v>-0.16</v>
+      </c>
+      <c r="G22" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="H22" s="10">
+        <v>2E-3</v>
+      </c>
+      <c r="I22" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="J22" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="K22" s="16">
+        <v>0.53</v>
+      </c>
+      <c r="L22" s="16">
+        <v>0.06</v>
+      </c>
+      <c r="M22" s="25"/>
+      <c r="N22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="24"/>
+      <c r="S22" s="10">
+        <v>0.17</v>
+      </c>
+      <c r="T22" s="10">
+        <v>2E-3</v>
+      </c>
+      <c r="U22" s="10">
+        <v>2E-3</v>
+      </c>
+      <c r="V22" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="W22" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="X22" s="15">
+        <v>-1.1100000000000001</v>
+      </c>
+      <c r="Y22" s="15">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="Z22" s="8"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24">
+        <v>0.43</v>
+      </c>
+      <c r="I23" s="24"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="24"/>
+      <c r="S23" s="24"/>
+      <c r="T23" s="24"/>
+      <c r="U23" s="24">
+        <v>0.19</v>
+      </c>
+      <c r="V23" s="24"/>
+      <c r="W23" s="25"/>
+      <c r="X23" s="25"/>
+      <c r="Y23" s="25"/>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I24" s="24"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O24" s="24"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="24"/>
+      <c r="S24" s="24"/>
+      <c r="T24" s="24"/>
+      <c r="U24" s="24">
+        <v>0.12</v>
+      </c>
+      <c r="V24" s="24"/>
+      <c r="W24" s="25"/>
+      <c r="X24" s="25"/>
+      <c r="Y24" s="25"/>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24">
+        <v>0.21</v>
+      </c>
+      <c r="I25" s="24"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
+      <c r="S25" s="24"/>
+      <c r="T25" s="24"/>
+      <c r="U25" s="24">
+        <v>0.13</v>
+      </c>
+      <c r="V25" s="24"/>
+      <c r="W25" s="25"/>
+      <c r="X25" s="25"/>
+      <c r="Y25" s="25"/>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24">
+        <v>0.8</v>
+      </c>
+      <c r="I26" s="24"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="O26" s="24"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="24"/>
+      <c r="S26" s="24"/>
+      <c r="T26" s="24"/>
+      <c r="U26" s="13">
+        <v>0.06</v>
+      </c>
+      <c r="V26" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="W26" s="25"/>
+      <c r="X26" s="25"/>
+      <c r="Y26" s="25"/>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24">
+        <v>0.16</v>
+      </c>
+      <c r="I27" s="24"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O27" s="24"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="24"/>
+      <c r="S27" s="24"/>
+      <c r="T27" s="24"/>
+      <c r="U27" s="13">
+        <v>0.06</v>
+      </c>
+      <c r="V27" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="W27" s="25"/>
+      <c r="X27" s="25"/>
+      <c r="Y27" s="25"/>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24">
+        <v>0.46</v>
+      </c>
+      <c r="I28" s="24"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O28" s="24"/>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="24"/>
+      <c r="R28" s="24"/>
+      <c r="S28" s="24"/>
+      <c r="T28" s="24"/>
+      <c r="U28" s="24">
+        <v>0.12</v>
+      </c>
+      <c r="V28" s="24"/>
+      <c r="W28" s="25"/>
+      <c r="X28" s="25"/>
+      <c r="Y28" s="25"/>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="I29" s="24"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O29" s="10">
+        <v>0.24</v>
+      </c>
+      <c r="P29" s="10">
+        <v>2E-3</v>
+      </c>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="V29" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="W29" s="25"/>
+      <c r="X29" s="25"/>
+      <c r="Y29" s="25"/>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="13">
+        <v>0.08</v>
+      </c>
+      <c r="C30" s="13">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="I30" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O30" s="24"/>
+      <c r="P30" s="24"/>
+      <c r="Q30" s="24"/>
+      <c r="R30" s="24"/>
+      <c r="S30" s="24"/>
+      <c r="T30" s="24"/>
+      <c r="U30" s="24">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="V30" s="24"/>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24">
+        <v>0.25</v>
+      </c>
+      <c r="I31" s="24"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="O31" s="24"/>
+      <c r="P31" s="24"/>
+      <c r="Q31" s="24"/>
+      <c r="R31" s="24"/>
+      <c r="S31" s="24"/>
+      <c r="T31" s="24"/>
+      <c r="U31" s="24">
+        <v>0.25</v>
+      </c>
+      <c r="V31" s="24"/>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A32" s="25"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="25"/>
+      <c r="O32" s="25"/>
+      <c r="P32" s="25"/>
+      <c r="Q32" s="25"/>
+      <c r="R32" s="25"/>
+      <c r="S32" s="25"/>
+      <c r="T32" s="25"/>
+      <c r="U32" s="25"/>
+      <c r="V32" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="N18:V18"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="W19:Y19"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="W2:Y2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
